--- a/currentbuild/StructureDefinition-AidnEpisodeOfCare.xlsx
+++ b/currentbuild/StructureDefinition-AidnEpisodeOfCare.xlsx
@@ -698,7 +698,7 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>

--- a/currentbuild/StructureDefinition-AidnEpisodeOfCare.xlsx
+++ b/currentbuild/StructureDefinition-AidnEpisodeOfCare.xlsx
@@ -698,7 +698,7 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
